--- a/Planeacion del Trabajo/Giroplas_PP_HER_v1_Herramienta para la Administración de Riesgos.xlsx
+++ b/Planeacion del Trabajo/Giroplas_PP_HER_v1_Herramienta para la Administración de Riesgos.xlsx
@@ -41,7 +41,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -50,7 +50,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -66,7 +66,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -75,7 +75,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Que origino el riesgo</t>
@@ -90,7 +90,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -99,7 +99,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -115,7 +115,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tiene que ser una fecha despues del que fue identificado</t>
         </r>
@@ -129,7 +129,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -138,7 +138,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Idea principal por que paso</t>
@@ -153,7 +153,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -162,7 +162,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -178,7 +178,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -187,7 +187,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -203,7 +203,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -212,7 +212,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -228,7 +228,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -237,7 +237,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -253,7 +253,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -262,7 +262,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -278,7 +278,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -287,7 +287,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -303,7 +303,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -312,7 +312,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -328,7 +328,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -337,7 +337,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -353,7 +353,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -362,7 +362,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -378,7 +378,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -387,7 +387,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -403,7 +403,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -412,7 +412,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -428,7 +428,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -437,7 +437,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -453,7 +453,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -462,7 +462,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -478,7 +478,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -487,7 +487,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -503,7 +503,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -512,7 +512,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -528,7 +528,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -537,7 +537,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -553,7 +553,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -562,7 +562,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -578,7 +578,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -587,7 +587,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -603,7 +603,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -612,7 +612,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -628,7 +628,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -637,7 +637,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -653,7 +653,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -662,7 +662,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -678,7 +678,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -687,7 +687,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -703,7 +703,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -712,7 +712,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -728,7 +728,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -737,7 +737,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -753,7 +753,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUDO:</t>
         </r>
@@ -762,7 +762,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nombre de quien identifico el resgo 
@@ -932,6 +932,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - No es muy probable que ocurra (20-40% de Probabilidad). </t>
     </r>
@@ -944,6 +945,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  - Es muy improbable que ocurra (menos del  20% de probabilidad).</t>
     </r>
@@ -956,6 +958,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - Es probable que ocurra (41-60% de probabilidad).</t>
     </r>
@@ -968,6 +971,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - Alta probabilidad de que ocurra (61-70% de probabilidad). </t>
     </r>
@@ -986,6 +990,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>- Los pasos para la mitigación del riesgo han sido tomados.</t>
     </r>
@@ -998,6 +1003,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - El riesgo se convertirá  en un problema en menos de 1 mes después  de la fecha establecida en el informe.</t>
     </r>
@@ -1010,6 +1016,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - El riesgo se convertirá  en un problema entre 1 y 3 meses después de la fecha establecida en el informe.</t>
     </r>
@@ -1022,6 +1029,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> -El riesgo se convertirá  en un problema en más de  3 meses después de la fecha establecida en el informe.</t>
     </r>
@@ -1040,6 +1048,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> -Riesgos impuestos por la madurez de un proceso y el nivel  de conocimiento de los trabajadores. </t>
     </r>
@@ -1070,6 +1079,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>- La exposición de este riesgo no ha sufrido cambios desde la última vez que fue revisado.</t>
     </r>
@@ -1082,6 +1092,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>- El riesgo ha sido identificado recientemente.</t>
     </r>
@@ -1115,6 +1126,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - El riesgo ha sido identificado, pero no se ha tomado la decisión de qué hacer al respecto(Este es el estado predeterminado, y probablemente apropiado para la mayoria de los nuevos riesgos). </t>
     </r>
@@ -1193,6 +1205,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - La exposición del riesgo ha sido mejorada desde la última vez que fue revisado(Por ejemplo, de rojo a amarillo, de amarillo a verde.)</t>
     </r>
@@ -1205,6 +1218,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>- La exposición de este riesgo  ha disminuido desde la última vez que fue revisada (Por ejemplo., de verde a amarillo, de amarillo a rojo.)</t>
     </r>
@@ -1235,6 +1249,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - Riesgos impuestos por el nivel de incertidumbre y exhaustividad en los requerimientos del proyecto. </t>
     </r>
@@ -1322,6 +1337,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- El riesgo es preocupante, pero no existen acciones para mitigarlo. </t>
     </r>
@@ -1347,6 +1363,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - El riesgo ya no es un problema. </t>
     </r>
@@ -1381,6 +1398,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - Riesgos impuestos fuera de la organización de desarrollo (por ejemplo, software, documentos, hardware, etc.</t>
     </r>
@@ -1396,6 +1414,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> otras organizaciones; </t>
     </r>
@@ -1416,6 +1435,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - Riesgos impuestos por la impredecibilidad de los costos, por estimaciones inexactas, o por alternativas que implican costos adicionales. </t>
     </r>
@@ -1428,6 +1448,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>- Riesgos originados por la dificultad  de predecir cuánto tiempo tomará realizar una tarea o las tareas a cargo.</t>
     </r>
@@ -1440,6 +1461,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - Riesgos impuestos por la probabilidad de que un recurso no esté cuando es necesitado.</t>
     </r>
@@ -1458,6 +1480,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>- Riesgos asociados con cuestiones de administración.</t>
     </r>
@@ -1470,6 +1493,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - Riesgos asociados con cuestiones tecnicas.</t>
     </r>
@@ -1485,6 +1509,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-El riesgo ha sido manejado dentro del proyecto</t>
     </r>
@@ -1497,6 +1522,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>- El riesgo ha sido llevado fuera del proyecto</t>
     </r>
@@ -1625,6 +1651,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) confirme que solamente el conjunto de riesgos para los riesgos identificados sean visibles(puede o no incluir riesgos retirados según lo deseado ). </t>
     </r>
@@ -1645,6 +1672,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, y no ocultar las filas que no contienen información sobre los riesgos o que no se que se va a imprimir / copiar como imagen.</t>
     </r>
@@ -1669,6 +1697,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> sobre la palabra  "¿Mostrar en el reporte?" y seleccione "Ver".  Solamente estas filas con la palabra "Ver" en la columna I, van a ser impresas o copiadas como imagenes.</t>
     </r>
@@ -1702,6 +1731,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> , de click sobre "Edición" / "Copiar imagen".</t>
     </r>
@@ -1875,9 +1905,6 @@
     <t>Cal</t>
   </si>
   <si>
-    <t>ui</t>
-  </si>
-  <si>
     <t>Analista</t>
   </si>
   <si>
@@ -2293,6 +2320,9 @@
   </si>
   <si>
     <t>programar el diagrama de clases</t>
+  </si>
+  <si>
+    <t>url de repositorio: Giroplas/Planeacion del Trabajo/Giroplas_PP_HER_v1_Herramienta para la Administración de Riesgos.xlsx</t>
   </si>
 </sst>
 </file>
@@ -2312,10 +2342,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2326,18 +2358,22 @@
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="MS Sans Serif"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2425,14 +2461,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2868,7 +2904,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3491,6 +3527,7 @@
     <xf numFmtId="0" fontId="19" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -4456,12 +4493,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="30486912"/>
-        <c:axId val="30488448"/>
-        <c:axId val="55237248"/>
+        <c:axId val="73128960"/>
+        <c:axId val="55849728"/>
+        <c:axId val="52394176"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="30486912"/>
+        <c:axId val="73128960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4506,7 +4543,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30488448"/>
+        <c:crossAx val="55849728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4516,7 +4553,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30488448"/>
+        <c:axId val="55849728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4561,13 +4598,13 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30486912"/>
+        <c:crossAx val="73128960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="55237248"/>
+        <c:axId val="52394176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4612,7 +4649,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30488448"/>
+        <c:crossAx val="55849728"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -8338,8 +8375,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AB783"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C509" sqref="C509"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8359,8 +8396,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>246</v>
+      <c r="D1" s="227" t="s">
+        <v>385</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>83</v>
@@ -8370,7 +8407,7 @@
       <c r="B2" s="189"/>
       <c r="C2" s="99"/>
       <c r="D2" s="102" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E2" s="186" t="s">
         <v>81</v>
@@ -8393,7 +8430,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="166" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E3" s="167" t="s">
         <v>51</v>
@@ -8493,7 +8530,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D8" s="49" t="str">
         <f>IF(C8="","WARNING - Please enter a Probability.","")</f>
@@ -8540,7 +8577,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="133" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>99</v>
@@ -8577,7 +8614,7 @@
         <v>89</v>
       </c>
       <c r="D12" s="174" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="19"/>
@@ -8607,7 +8644,7 @@
         <v>90</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="19"/>
@@ -8637,7 +8674,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
@@ -8680,7 +8717,7 @@
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="214" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="19"/>
@@ -8748,7 +8785,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E23" s="27">
         <v>42344</v>
@@ -8771,7 +8808,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E24" s="27">
         <v>42344</v>
@@ -8794,7 +8831,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E25" s="27">
         <v>42344</v>
@@ -8840,7 +8877,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E27" s="27">
         <v>42344</v>
@@ -8863,7 +8900,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E28" s="27">
         <v>42344</v>
@@ -8895,7 +8932,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="166" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E30" s="167" t="s">
         <v>51</v>
@@ -8974,7 +9011,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="212" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="16" t="s">
@@ -9008,7 +9045,7 @@
         <v>44</v>
       </c>
       <c r="C35" s="133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D35" s="49" t="str">
         <f>IF(C35="","WARNING - Please enter a Probability.","")</f>
@@ -9032,7 +9069,7 @@
         <v>50</v>
       </c>
       <c r="C36" s="216" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>96</v>
@@ -9092,7 +9129,7 @@
         <v>89</v>
       </c>
       <c r="D39" s="174" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="19"/>
@@ -9122,7 +9159,7 @@
         <v>90</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="19"/>
@@ -9152,7 +9189,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="214" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="19"/>
@@ -9182,7 +9219,7 @@
         <v>177</v>
       </c>
       <c r="D45" s="214" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="19"/>
@@ -9263,7 +9300,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E50" s="131">
         <v>42168</v>
@@ -9286,7 +9323,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E51" s="131">
         <v>42168</v>
@@ -9309,7 +9346,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E52" s="131">
         <v>42168</v>
@@ -9351,7 +9388,7 @@
       <c r="B54" s="176"/>
       <c r="C54" s="30"/>
       <c r="D54" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="33"/>
@@ -9399,7 +9436,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="166" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E56" s="167" t="s">
         <v>51</v>
@@ -9491,7 +9528,7 @@
         <v>85</v>
       </c>
       <c r="C60" s="210" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="16" t="s">
@@ -9512,7 +9549,7 @@
         <v>44</v>
       </c>
       <c r="C61" s="133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D61" s="49" t="str">
         <f>IF(C61="","WARNING - Please enter a Probability.","")</f>
@@ -9536,7 +9573,7 @@
         <v>50</v>
       </c>
       <c r="C62" s="133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>96</v>
@@ -9596,7 +9633,7 @@
         <v>89</v>
       </c>
       <c r="D65" s="174" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="19"/>
@@ -9626,7 +9663,7 @@
         <v>90</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="19"/>
@@ -9656,7 +9693,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E69" s="18"/>
       <c r="F69" s="19"/>
@@ -9686,7 +9723,7 @@
         <v>177</v>
       </c>
       <c r="D71" s="214" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E71" s="18"/>
       <c r="F71" s="19"/>
@@ -9767,7 +9804,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E76" s="131">
         <v>42168</v>
@@ -9790,7 +9827,7 @@
         <v>2</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E77" s="131">
         <v>42168</v>
@@ -9813,7 +9850,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E78" s="131">
         <v>42168</v>
@@ -9836,7 +9873,7 @@
         <v>4</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E79" s="131">
         <v>42168</v>
@@ -9885,7 +9922,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="166" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E82" s="167" t="s">
         <v>51</v>
@@ -9964,7 +10001,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="212" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="16" t="s">
@@ -10069,7 +10106,7 @@
         <v>89</v>
       </c>
       <c r="D91" s="174" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E91" s="18"/>
       <c r="F91" s="19"/>
@@ -10099,7 +10136,7 @@
         <v>90</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E93" s="18"/>
       <c r="F93" s="19"/>
@@ -10129,7 +10166,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="19"/>
@@ -10159,7 +10196,7 @@
         <v>177</v>
       </c>
       <c r="D97" s="214" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="19"/>
@@ -10240,7 +10277,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E102" s="131">
         <v>42169</v>
@@ -10263,7 +10300,7 @@
         <v>2</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E103" s="131">
         <v>42169</v>
@@ -10286,7 +10323,7 @@
         <v>3</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E104" s="131">
         <v>42169</v>
@@ -10309,7 +10346,7 @@
         <v>4</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E105" s="131">
         <v>42169</v>
@@ -10358,7 +10395,7 @@
         <v>5</v>
       </c>
       <c r="D108" s="166" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E108" s="167" t="s">
         <v>51</v>
@@ -10437,7 +10474,7 @@
         <v>85</v>
       </c>
       <c r="C112" s="212" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D112" s="18"/>
       <c r="E112" s="16" t="s">
@@ -10482,7 +10519,7 @@
         <v>50</v>
       </c>
       <c r="C114" s="133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>96</v>
@@ -10542,7 +10579,7 @@
         <v>89</v>
       </c>
       <c r="D117" s="174" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E117" s="18"/>
       <c r="F117" s="19"/>
@@ -10572,7 +10609,7 @@
         <v>90</v>
       </c>
       <c r="D119" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E119" s="18"/>
       <c r="F119" s="19"/>
@@ -10602,7 +10639,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E121" s="18"/>
       <c r="F121" s="19"/>
@@ -10632,7 +10669,7 @@
         <v>177</v>
       </c>
       <c r="D123" s="214" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E123" s="18"/>
       <c r="F123" s="19"/>
@@ -10713,7 +10750,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E128" s="131">
         <v>42169</v>
@@ -10736,7 +10773,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E129" s="131">
         <v>42169</v>
@@ -10759,7 +10796,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E130" s="131">
         <v>42169</v>
@@ -10782,7 +10819,7 @@
         <v>4</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E131" s="131">
         <v>42169</v>
@@ -10831,7 +10868,7 @@
         <v>6</v>
       </c>
       <c r="D134" s="166" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E134" s="167" t="s">
         <v>51</v>
@@ -10910,7 +10947,7 @@
         <v>85</v>
       </c>
       <c r="C138" s="212" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D138" s="18"/>
       <c r="E138" s="16" t="s">
@@ -10931,7 +10968,7 @@
         <v>44</v>
       </c>
       <c r="C139" s="133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D139" s="49" t="str">
         <f>IF(C139="","WARNING - Please enter a Probability.","")</f>
@@ -11015,7 +11052,7 @@
         <v>89</v>
       </c>
       <c r="D143" s="174" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E143" s="18"/>
       <c r="F143" s="19"/>
@@ -11045,7 +11082,7 @@
         <v>90</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E145" s="18"/>
       <c r="F145" s="19"/>
@@ -11075,7 +11112,7 @@
         <v>3</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E147" s="18"/>
       <c r="F147" s="19"/>
@@ -11105,7 +11142,7 @@
         <v>177</v>
       </c>
       <c r="D149" s="214" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E149" s="18"/>
       <c r="F149" s="19"/>
@@ -11186,7 +11223,7 @@
         <v>1</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E154" s="131">
         <v>42170</v>
@@ -11209,7 +11246,7 @@
         <v>2</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E155" s="131">
         <v>42170</v>
@@ -11232,7 +11269,7 @@
         <v>3</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E156" s="131">
         <v>42170</v>
@@ -11255,7 +11292,7 @@
         <v>4</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E157" s="131">
         <v>42170</v>
@@ -11301,7 +11338,7 @@
         <v>7</v>
       </c>
       <c r="D160" s="166" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E160" s="167" t="s">
         <v>51</v>
@@ -11380,7 +11417,7 @@
         <v>85</v>
       </c>
       <c r="C164" s="212" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D164" s="18"/>
       <c r="E164" s="16" t="s">
@@ -11401,7 +11438,7 @@
         <v>44</v>
       </c>
       <c r="C165" s="133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D165" s="49" t="str">
         <f>IF(C165="","WARNING - Please enter a Probability.","")</f>
@@ -11485,7 +11522,7 @@
         <v>89</v>
       </c>
       <c r="D169" s="174" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E169" s="18"/>
       <c r="F169" s="19"/>
@@ -11515,7 +11552,7 @@
         <v>90</v>
       </c>
       <c r="D171" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E171" s="18"/>
       <c r="F171" s="19"/>
@@ -11545,7 +11582,7 @@
         <v>3</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E173" s="18"/>
       <c r="F173" s="19"/>
@@ -11575,7 +11612,7 @@
         <v>177</v>
       </c>
       <c r="D175" s="214" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E175" s="18"/>
       <c r="F175" s="19"/>
@@ -11656,7 +11693,7 @@
         <v>1</v>
       </c>
       <c r="D180" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E180" s="131">
         <v>42170</v>
@@ -11679,7 +11716,7 @@
         <v>2</v>
       </c>
       <c r="D181" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E181" s="131">
         <v>42170</v>
@@ -11702,7 +11739,7 @@
         <v>3</v>
       </c>
       <c r="D182" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E182" s="131">
         <v>42170</v>
@@ -11725,7 +11762,7 @@
         <v>4</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E183" s="131">
         <v>42170</v>
@@ -11771,7 +11808,7 @@
         <v>8</v>
       </c>
       <c r="D186" s="166" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E186" s="167" t="s">
         <v>51</v>
@@ -11827,7 +11864,7 @@
         <v>84</v>
       </c>
       <c r="C189" s="210" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D189" s="15" t="s">
         <v>126</v>
@@ -11850,7 +11887,7 @@
         <v>85</v>
       </c>
       <c r="C190" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D190" s="18"/>
       <c r="E190" s="16" t="s">
@@ -11871,7 +11908,7 @@
         <v>44</v>
       </c>
       <c r="C191" s="133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D191" s="49" t="str">
         <f>IF(C191="","WARNING - Please enter a Probability.","")</f>
@@ -11895,7 +11932,7 @@
         <v>50</v>
       </c>
       <c r="C192" s="133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D192" s="15" t="s">
         <v>96</v>
@@ -11955,7 +11992,7 @@
         <v>89</v>
       </c>
       <c r="D195" s="174" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E195" s="18"/>
       <c r="F195" s="19"/>
@@ -11985,7 +12022,7 @@
         <v>90</v>
       </c>
       <c r="D197" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E197" s="18"/>
       <c r="F197" s="19"/>
@@ -12015,7 +12052,7 @@
         <v>3</v>
       </c>
       <c r="D199" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E199" s="18"/>
       <c r="F199" s="19"/>
@@ -12045,7 +12082,7 @@
         <v>177</v>
       </c>
       <c r="D201" s="214" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E201" s="18"/>
       <c r="F201" s="19"/>
@@ -12120,13 +12157,13 @@
     </row>
     <row r="206" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B206" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C206" s="26">
         <v>1</v>
       </c>
       <c r="D206" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E206" s="131">
         <v>42171</v>
@@ -12143,13 +12180,13 @@
     </row>
     <row r="207" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B207" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C207" s="26">
         <v>2</v>
       </c>
       <c r="D207" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E207" s="131">
         <v>42171</v>
@@ -12166,13 +12203,13 @@
     </row>
     <row r="208" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B208" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C208" s="26">
         <v>3</v>
       </c>
       <c r="D208" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E208" s="131">
         <v>42171</v>
@@ -12189,13 +12226,13 @@
     </row>
     <row r="209" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B209" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C209" s="26">
         <v>4</v>
       </c>
       <c r="D209" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E209" s="131">
         <v>42171</v>
@@ -12241,7 +12278,7 @@
         <v>9</v>
       </c>
       <c r="D212" s="166" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E212" s="167" t="s">
         <v>51</v>
@@ -12297,7 +12334,7 @@
         <v>84</v>
       </c>
       <c r="C215" s="210" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D215" s="15" t="s">
         <v>126</v>
@@ -12320,7 +12357,7 @@
         <v>85</v>
       </c>
       <c r="C216" s="210" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D216" s="18"/>
       <c r="E216" s="16" t="s">
@@ -12365,7 +12402,7 @@
         <v>50</v>
       </c>
       <c r="C218" s="133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D218" s="15" t="s">
         <v>96</v>
@@ -12425,7 +12462,7 @@
         <v>89</v>
       </c>
       <c r="D221" s="174" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E221" s="18"/>
       <c r="F221" s="19"/>
@@ -12455,7 +12492,7 @@
         <v>90</v>
       </c>
       <c r="D223" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E223" s="18"/>
       <c r="F223" s="19"/>
@@ -12485,7 +12522,7 @@
         <v>3</v>
       </c>
       <c r="D225" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E225" s="18"/>
       <c r="F225" s="19"/>
@@ -12515,7 +12552,7 @@
         <v>177</v>
       </c>
       <c r="D227" s="214" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E227" s="18"/>
       <c r="F227" s="19"/>
@@ -12590,13 +12627,13 @@
     </row>
     <row r="232" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B232" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C232" s="26">
         <v>1</v>
       </c>
       <c r="D232" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E232" s="131">
         <v>42171</v>
@@ -12613,13 +12650,13 @@
     </row>
     <row r="233" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B233" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C233" s="26">
         <v>2</v>
       </c>
       <c r="D233" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E233" s="131">
         <v>42171</v>
@@ -12636,13 +12673,13 @@
     </row>
     <row r="234" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B234" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C234" s="26">
         <v>3</v>
       </c>
       <c r="D234" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E234" s="131">
         <v>42171</v>
@@ -12659,13 +12696,13 @@
     </row>
     <row r="235" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B235" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C235" s="26">
         <v>4</v>
       </c>
       <c r="D235" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E235" s="131">
         <v>42171</v>
@@ -12711,7 +12748,7 @@
         <v>10</v>
       </c>
       <c r="D238" s="166" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E238" s="167" t="s">
         <v>51</v>
@@ -12767,7 +12804,7 @@
         <v>84</v>
       </c>
       <c r="C241" s="210" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D241" s="15" t="s">
         <v>126</v>
@@ -12790,7 +12827,7 @@
         <v>85</v>
       </c>
       <c r="C242" s="210" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D242" s="18"/>
       <c r="E242" s="16" t="s">
@@ -12811,7 +12848,7 @@
         <v>44</v>
       </c>
       <c r="C243" s="133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D243" s="49" t="str">
         <f>IF(C243="","WARNING - Please enter a Probability.","")</f>
@@ -12835,7 +12872,7 @@
         <v>50</v>
       </c>
       <c r="C244" s="133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D244" s="15" t="s">
         <v>96</v>
@@ -12895,7 +12932,7 @@
         <v>89</v>
       </c>
       <c r="D247" s="174" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E247" s="18"/>
       <c r="F247" s="19"/>
@@ -12925,7 +12962,7 @@
         <v>90</v>
       </c>
       <c r="D249" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E249" s="18"/>
       <c r="F249" s="19"/>
@@ -12955,7 +12992,7 @@
         <v>3</v>
       </c>
       <c r="D251" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E251" s="18"/>
       <c r="F251" s="19"/>
@@ -12985,7 +13022,7 @@
         <v>177</v>
       </c>
       <c r="D253" s="214" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E253" s="18"/>
       <c r="F253" s="19"/>
@@ -13060,13 +13097,13 @@
     </row>
     <row r="258" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B258" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C258" s="26">
         <v>1</v>
       </c>
       <c r="D258" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E258" s="131">
         <v>42172</v>
@@ -13083,13 +13120,13 @@
     </row>
     <row r="259" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B259" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C259" s="26">
         <v>2</v>
       </c>
       <c r="D259" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E259" s="131">
         <v>42172</v>
@@ -13106,13 +13143,13 @@
     </row>
     <row r="260" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B260" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C260" s="26">
         <v>3</v>
       </c>
       <c r="D260" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E260" s="131">
         <v>42172</v>
@@ -13129,13 +13166,13 @@
     </row>
     <row r="261" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B261" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C261" s="26">
         <v>4</v>
       </c>
       <c r="D261" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E261" s="131">
         <v>42172</v>
@@ -13181,7 +13218,7 @@
         <v>11</v>
       </c>
       <c r="D264" s="166" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E264" s="167" t="s">
         <v>51</v>
@@ -13237,7 +13274,7 @@
         <v>84</v>
       </c>
       <c r="C267" s="210" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D267" s="15" t="s">
         <v>126</v>
@@ -13260,7 +13297,7 @@
         <v>85</v>
       </c>
       <c r="C268" s="210" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D268" s="18"/>
       <c r="E268" s="16" t="s">
@@ -13365,7 +13402,7 @@
         <v>89</v>
       </c>
       <c r="D273" s="174" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E273" s="18"/>
       <c r="F273" s="19"/>
@@ -13395,7 +13432,7 @@
         <v>90</v>
       </c>
       <c r="D275" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E275" s="18"/>
       <c r="F275" s="19"/>
@@ -13425,7 +13462,7 @@
         <v>3</v>
       </c>
       <c r="D277" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E277" s="18"/>
       <c r="F277" s="19"/>
@@ -13455,7 +13492,7 @@
         <v>177</v>
       </c>
       <c r="D279" s="214" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E279" s="18"/>
       <c r="F279" s="19"/>
@@ -13530,13 +13567,13 @@
     </row>
     <row r="284" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B284" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C284" s="26">
         <v>1</v>
       </c>
       <c r="D284" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E284" s="131">
         <v>42172</v>
@@ -13553,13 +13590,13 @@
     </row>
     <row r="285" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B285" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C285" s="26">
         <v>2</v>
       </c>
       <c r="D285" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E285" s="131">
         <v>42172</v>
@@ -13576,13 +13613,13 @@
     </row>
     <row r="286" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B286" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C286" s="26">
         <v>3</v>
       </c>
       <c r="D286" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E286" s="131">
         <v>42172</v>
@@ -13599,13 +13636,13 @@
     </row>
     <row r="287" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B287" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C287" s="26">
         <v>4</v>
       </c>
       <c r="D287" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E287" s="131">
         <v>42172</v>
@@ -13651,7 +13688,7 @@
         <v>12</v>
       </c>
       <c r="D290" s="166" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E290" s="167" t="s">
         <v>51</v>
@@ -13707,7 +13744,7 @@
         <v>84</v>
       </c>
       <c r="C293" s="210" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D293" s="15" t="s">
         <v>126</v>
@@ -13730,7 +13767,7 @@
         <v>85</v>
       </c>
       <c r="C294" s="210" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D294" s="18"/>
       <c r="E294" s="16" t="s">
@@ -13751,7 +13788,7 @@
         <v>44</v>
       </c>
       <c r="C295" s="133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D295" s="49" t="str">
         <f>IF(C295="","WARNING - Please enter a Probability.","")</f>
@@ -13835,7 +13872,7 @@
         <v>89</v>
       </c>
       <c r="D299" s="174" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E299" s="18"/>
       <c r="F299" s="19"/>
@@ -13865,7 +13902,7 @@
         <v>90</v>
       </c>
       <c r="D301" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E301" s="18"/>
       <c r="F301" s="19"/>
@@ -13895,7 +13932,7 @@
         <v>3</v>
       </c>
       <c r="D303" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E303" s="18"/>
       <c r="F303" s="19"/>
@@ -13925,7 +13962,7 @@
         <v>177</v>
       </c>
       <c r="D305" s="214" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E305" s="18"/>
       <c r="F305" s="19"/>
@@ -14000,13 +14037,13 @@
     </row>
     <row r="310" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B310" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C310" s="26">
         <v>1</v>
       </c>
       <c r="D310" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E310" s="131">
         <v>42172</v>
@@ -14023,13 +14060,13 @@
     </row>
     <row r="311" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B311" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C311" s="26">
         <v>2</v>
       </c>
       <c r="D311" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E311" s="131">
         <v>42172</v>
@@ -14046,13 +14083,13 @@
     </row>
     <row r="312" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B312" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C312" s="26">
         <v>3</v>
       </c>
       <c r="D312" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E312" s="131">
         <v>42172</v>
@@ -14069,13 +14106,13 @@
     </row>
     <row r="313" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B313" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C313" s="26">
         <v>4</v>
       </c>
       <c r="D313" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E313" s="131">
         <v>42172</v>
@@ -14124,7 +14161,7 @@
         <v>13</v>
       </c>
       <c r="D316" s="166" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E316" s="167" t="s">
         <v>51</v>
@@ -14180,7 +14217,7 @@
         <v>84</v>
       </c>
       <c r="C319" s="210" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D319" s="15" t="s">
         <v>126</v>
@@ -14203,7 +14240,7 @@
         <v>85</v>
       </c>
       <c r="C320" s="210" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D320" s="18"/>
       <c r="E320" s="16" t="s">
@@ -14248,7 +14285,7 @@
         <v>50</v>
       </c>
       <c r="C322" s="133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D322" s="15" t="s">
         <v>96</v>
@@ -14308,7 +14345,7 @@
         <v>89</v>
       </c>
       <c r="D325" s="174" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E325" s="18"/>
       <c r="F325" s="19"/>
@@ -14338,7 +14375,7 @@
         <v>90</v>
       </c>
       <c r="D327" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E327" s="18"/>
       <c r="F327" s="19"/>
@@ -14368,7 +14405,7 @@
         <v>3</v>
       </c>
       <c r="D329" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E329" s="18"/>
       <c r="F329" s="19"/>
@@ -14398,7 +14435,7 @@
         <v>177</v>
       </c>
       <c r="D331" s="214" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E331" s="18"/>
       <c r="F331" s="19"/>
@@ -14473,13 +14510,13 @@
     </row>
     <row r="336" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B336" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C336" s="26">
         <v>1</v>
       </c>
       <c r="D336" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E336" s="131">
         <v>42173</v>
@@ -14496,13 +14533,13 @@
     </row>
     <row r="337" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B337" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C337" s="26">
         <v>2</v>
       </c>
       <c r="D337" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E337" s="131">
         <v>42173</v>
@@ -14519,13 +14556,13 @@
     </row>
     <row r="338" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B338" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C338" s="26">
         <v>3</v>
       </c>
       <c r="D338" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E338" s="131">
         <v>42173</v>
@@ -14542,13 +14579,13 @@
     </row>
     <row r="339" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B339" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C339" s="26">
         <v>4</v>
       </c>
       <c r="D339" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E339" s="131">
         <v>42173</v>
@@ -14597,7 +14634,7 @@
         <v>14</v>
       </c>
       <c r="D342" s="166" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E342" s="167" t="s">
         <v>51</v>
@@ -14653,7 +14690,7 @@
         <v>84</v>
       </c>
       <c r="C345" s="210" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D345" s="15" t="s">
         <v>126</v>
@@ -14676,7 +14713,7 @@
         <v>85</v>
       </c>
       <c r="C346" s="210" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D346" s="18"/>
       <c r="E346" s="16" t="s">
@@ -14697,7 +14734,7 @@
         <v>44</v>
       </c>
       <c r="C347" s="133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D347" s="49" t="str">
         <f>IF(C347="","WARNING - Please enter a Probability.","")</f>
@@ -14721,7 +14758,7 @@
         <v>50</v>
       </c>
       <c r="C348" s="133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D348" s="15" t="s">
         <v>96</v>
@@ -14781,7 +14818,7 @@
         <v>89</v>
       </c>
       <c r="D351" s="174" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E351" s="18"/>
       <c r="F351" s="19"/>
@@ -14811,7 +14848,7 @@
         <v>90</v>
       </c>
       <c r="D353" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E353" s="18"/>
       <c r="F353" s="19"/>
@@ -14841,7 +14878,7 @@
         <v>3</v>
       </c>
       <c r="D355" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E355" s="18"/>
       <c r="F355" s="19"/>
@@ -14871,7 +14908,7 @@
         <v>177</v>
       </c>
       <c r="D357" s="214" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E357" s="18"/>
       <c r="F357" s="19"/>
@@ -14946,13 +14983,13 @@
     </row>
     <row r="362" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B362" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C362" s="26">
         <v>1</v>
       </c>
       <c r="D362" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E362" s="131">
         <v>42173</v>
@@ -14969,13 +15006,13 @@
     </row>
     <row r="363" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B363" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C363" s="26">
         <v>2</v>
       </c>
       <c r="D363" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E363" s="131">
         <v>42173</v>
@@ -14992,13 +15029,13 @@
     </row>
     <row r="364" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B364" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C364" s="26">
         <v>3</v>
       </c>
       <c r="D364" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E364" s="131">
         <v>42173</v>
@@ -15015,13 +15052,13 @@
     </row>
     <row r="365" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B365" s="212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C365" s="26">
         <v>4</v>
       </c>
       <c r="D365" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E365" s="131">
         <v>42173</v>
@@ -15070,7 +15107,7 @@
         <v>15</v>
       </c>
       <c r="D368" s="166" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E368" s="167" t="s">
         <v>51</v>
@@ -15103,7 +15140,7 @@
         <v>39</v>
       </c>
       <c r="C370" s="219" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D370" s="15" t="str">
         <f>IF(OR(C373="",C374=""),"",VLOOKUP(CONCATENATE(C373," - ",C374),Exposure,2))</f>
@@ -15127,7 +15164,7 @@
         <v>84</v>
       </c>
       <c r="C371" s="210" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D371" s="15" t="s">
         <v>126</v>
@@ -15150,7 +15187,7 @@
         <v>85</v>
       </c>
       <c r="C372" s="210" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D372" s="18"/>
       <c r="E372" s="16" t="s">
@@ -15171,7 +15208,7 @@
         <v>44</v>
       </c>
       <c r="C373" s="133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D373" s="49" t="str">
         <f>IF(C373="","WARNING - Please enter a Probability.","")</f>
@@ -15195,7 +15232,7 @@
         <v>50</v>
       </c>
       <c r="C374" s="133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D374" s="15" t="s">
         <v>96</v>
@@ -15204,7 +15241,7 @@
         <v>61</v>
       </c>
       <c r="F374" s="213" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I374" s="138" t="s">
         <v>93</v>
@@ -15227,7 +15264,7 @@
         <v>62</v>
       </c>
       <c r="F375" s="217" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I375" s="138" t="s">
         <v>93</v>
@@ -15255,7 +15292,7 @@
         <v>89</v>
       </c>
       <c r="D377" s="174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E377" s="18"/>
       <c r="F377" s="19"/>
@@ -15285,7 +15322,7 @@
         <v>90</v>
       </c>
       <c r="D379" s="223" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E379" s="18"/>
       <c r="F379" s="19"/>
@@ -15315,7 +15352,7 @@
         <v>3</v>
       </c>
       <c r="D381" s="223" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E381" s="18"/>
       <c r="F381" s="19"/>
@@ -15345,7 +15382,7 @@
         <v>177</v>
       </c>
       <c r="D383" s="223" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E383" s="18"/>
       <c r="F383" s="19"/>
@@ -15420,19 +15457,19 @@
     </row>
     <row r="388" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B388" s="218" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C388" s="26">
         <v>1</v>
       </c>
       <c r="D388" s="223" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E388" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="F388" s="28" t="s">
         <v>326</v>
-      </c>
-      <c r="F388" s="28" t="s">
-        <v>327</v>
       </c>
       <c r="I388" s="138" t="s">
         <v>93</v>
@@ -15443,19 +15480,19 @@
     </row>
     <row r="389" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B389" s="218" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C389" s="26">
         <v>2</v>
       </c>
       <c r="D389" s="223" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E389" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="F389" s="28" t="s">
         <v>326</v>
-      </c>
-      <c r="F389" s="28" t="s">
-        <v>327</v>
       </c>
       <c r="I389" s="138" t="s">
         <v>93</v>
@@ -15466,19 +15503,19 @@
     </row>
     <row r="390" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B390" s="218" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C390" s="26">
         <v>3</v>
       </c>
       <c r="D390" s="223" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E390" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="F390" s="28" t="s">
         <v>326</v>
-      </c>
-      <c r="F390" s="28" t="s">
-        <v>327</v>
       </c>
       <c r="I390" s="138" t="s">
         <v>93</v>
@@ -15489,19 +15526,19 @@
     </row>
     <row r="391" spans="2:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B391" s="218" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C391" s="26">
         <v>4</v>
       </c>
       <c r="D391" s="223" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E391" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="F391" s="28" t="s">
         <v>326</v>
-      </c>
-      <c r="F391" s="28" t="s">
-        <v>327</v>
       </c>
       <c r="I391" s="138" t="s">
         <v>93</v>
@@ -15541,7 +15578,7 @@
         <v>16</v>
       </c>
       <c r="D394" s="166" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E394" s="167" t="s">
         <v>51</v>
@@ -15573,7 +15610,7 @@
         <v>39</v>
       </c>
       <c r="C396" s="219" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D396" s="15" t="str">
         <f>IF(OR(C399="",C400=""),"",VLOOKUP(CONCATENATE(C399," - ",C400),Exposure,2))</f>
@@ -15597,7 +15634,7 @@
         <v>84</v>
       </c>
       <c r="C397" s="210" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D397" s="15" t="s">
         <v>126</v>
@@ -15620,7 +15657,7 @@
         <v>85</v>
       </c>
       <c r="C398" s="210" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D398" s="18"/>
       <c r="E398" s="16" t="s">
@@ -15641,7 +15678,7 @@
         <v>44</v>
       </c>
       <c r="C399" s="133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D399" s="49" t="str">
         <f>IF(C399="","WARNING - Please enter a Probability.","")</f>
@@ -15665,7 +15702,7 @@
         <v>50</v>
       </c>
       <c r="C400" s="133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D400" s="15" t="s">
         <v>96</v>
@@ -15674,7 +15711,7 @@
         <v>61</v>
       </c>
       <c r="F400" s="220" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I400" s="138" t="s">
         <v>93</v>
@@ -15697,7 +15734,7 @@
         <v>62</v>
       </c>
       <c r="F401" s="221" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I401" s="138" t="s">
         <v>93</v>
@@ -15725,7 +15762,7 @@
         <v>89</v>
       </c>
       <c r="D403" s="174" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E403" s="18"/>
       <c r="F403" s="19"/>
@@ -15755,7 +15792,7 @@
         <v>90</v>
       </c>
       <c r="D405" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E405" s="18"/>
       <c r="F405" s="19"/>
@@ -15785,7 +15822,7 @@
         <v>3</v>
       </c>
       <c r="D407" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E407" s="18"/>
       <c r="F407" s="19"/>
@@ -15815,7 +15852,7 @@
         <v>177</v>
       </c>
       <c r="D409" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E409" s="18"/>
       <c r="F409" s="19"/>
@@ -15890,19 +15927,19 @@
     </row>
     <row r="414" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B414" s="218" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C414" s="26">
         <v>1</v>
       </c>
       <c r="D414" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E414" s="219" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F414" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I414" s="138" t="s">
         <v>93</v>
@@ -15913,19 +15950,19 @@
     </row>
     <row r="415" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B415" s="218" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C415" s="26">
         <v>2</v>
       </c>
       <c r="D415" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E415" s="219" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F415" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I415" s="138" t="s">
         <v>93</v>
@@ -15936,19 +15973,19 @@
     </row>
     <row r="416" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B416" s="218" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C416" s="26">
         <v>3</v>
       </c>
       <c r="D416" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E416" s="219" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F416" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I416" s="138" t="s">
         <v>93</v>
@@ -15959,19 +15996,19 @@
     </row>
     <row r="417" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B417" s="218" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C417" s="26">
         <v>4</v>
       </c>
       <c r="D417" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E417" s="219" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F417" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I417" s="138" t="s">
         <v>93</v>
@@ -16011,7 +16048,7 @@
         <v>17</v>
       </c>
       <c r="D420" s="166" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E420" s="167" t="s">
         <v>51</v>
@@ -16043,7 +16080,7 @@
         <v>39</v>
       </c>
       <c r="C422" s="219" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D422" s="15" t="str">
         <f>IF(OR(C425="",C426=""),"",VLOOKUP(CONCATENATE(C425," - ",C426),Exposure,2))</f>
@@ -16090,7 +16127,7 @@
         <v>85</v>
       </c>
       <c r="C424" s="212" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D424" s="18"/>
       <c r="E424" s="16" t="s">
@@ -16111,7 +16148,7 @@
         <v>44</v>
       </c>
       <c r="C425" s="133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D425" s="49" t="str">
         <f>IF(C425="","WARNING - Please enter a Probability.","")</f>
@@ -16135,7 +16172,7 @@
         <v>50</v>
       </c>
       <c r="C426" s="133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D426" s="15" t="s">
         <v>96</v>
@@ -16144,7 +16181,7 @@
         <v>61</v>
       </c>
       <c r="F426" s="220" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I426" s="138" t="s">
         <v>93</v>
@@ -16167,7 +16204,7 @@
         <v>62</v>
       </c>
       <c r="F427" s="221" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I427" s="138" t="s">
         <v>93</v>
@@ -16195,7 +16232,7 @@
         <v>89</v>
       </c>
       <c r="D429" s="174" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E429" s="18"/>
       <c r="F429" s="19"/>
@@ -16225,7 +16262,7 @@
         <v>90</v>
       </c>
       <c r="D431" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E431" s="18"/>
       <c r="F431" s="19"/>
@@ -16255,7 +16292,7 @@
         <v>3</v>
       </c>
       <c r="D433" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E433" s="18"/>
       <c r="F433" s="19"/>
@@ -16285,7 +16322,7 @@
         <v>177</v>
       </c>
       <c r="D435" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E435" s="18"/>
       <c r="F435" s="19"/>
@@ -16360,19 +16397,19 @@
     </row>
     <row r="440" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B440" s="218" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C440" s="26">
         <v>1</v>
       </c>
       <c r="D440" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E440" s="219" t="s">
+        <v>329</v>
+      </c>
+      <c r="F440" s="220" t="s">
         <v>330</v>
-      </c>
-      <c r="F440" s="220" t="s">
-        <v>331</v>
       </c>
       <c r="I440" s="138" t="s">
         <v>93</v>
@@ -16383,19 +16420,19 @@
     </row>
     <row r="441" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B441" s="218" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C441" s="26">
         <v>2</v>
       </c>
       <c r="D441" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E441" s="219" t="s">
+        <v>329</v>
+      </c>
+      <c r="F441" s="220" t="s">
         <v>330</v>
-      </c>
-      <c r="F441" s="220" t="s">
-        <v>331</v>
       </c>
       <c r="I441" s="138" t="s">
         <v>93</v>
@@ -16406,19 +16443,19 @@
     </row>
     <row r="442" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B442" s="218" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C442" s="26">
         <v>3</v>
       </c>
       <c r="D442" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E442" s="219" t="s">
+        <v>329</v>
+      </c>
+      <c r="F442" s="220" t="s">
         <v>330</v>
-      </c>
-      <c r="F442" s="220" t="s">
-        <v>331</v>
       </c>
       <c r="I442" s="138" t="s">
         <v>93</v>
@@ -16429,19 +16466,19 @@
     </row>
     <row r="443" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B443" s="218" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C443" s="26">
         <v>4</v>
       </c>
       <c r="D443" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E443" s="219" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F443" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I443" s="138" t="s">
         <v>93</v>
@@ -16481,7 +16518,7 @@
         <v>18</v>
       </c>
       <c r="D446" s="166" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E446" s="167" t="s">
         <v>51</v>
@@ -16513,7 +16550,7 @@
         <v>39</v>
       </c>
       <c r="C448" s="210" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D448" s="15" t="str">
         <f>IF(OR(C451="",C452=""),"",VLOOKUP(CONCATENATE(C451," - ",C452),Exposure,2))</f>
@@ -16537,7 +16574,7 @@
         <v>84</v>
       </c>
       <c r="C449" s="210" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D449" s="15" t="s">
         <v>126</v>
@@ -16560,7 +16597,7 @@
         <v>85</v>
       </c>
       <c r="C450" s="212" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D450" s="18"/>
       <c r="E450" s="16" t="s">
@@ -16581,7 +16618,7 @@
         <v>44</v>
       </c>
       <c r="C451" s="133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D451" s="49" t="str">
         <f>IF(C451="","WARNING - Please enter a Probability.","")</f>
@@ -16605,7 +16642,7 @@
         <v>50</v>
       </c>
       <c r="C452" s="133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D452" s="15" t="s">
         <v>96</v>
@@ -16614,7 +16651,7 @@
         <v>61</v>
       </c>
       <c r="F452" s="213" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I452" s="138" t="s">
         <v>93</v>
@@ -16637,7 +16674,7 @@
         <v>62</v>
       </c>
       <c r="F453" s="217" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I453" s="138" t="s">
         <v>93</v>
@@ -16665,7 +16702,7 @@
         <v>89</v>
       </c>
       <c r="D455" s="174" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E455" s="18"/>
       <c r="F455" s="19"/>
@@ -16695,7 +16732,7 @@
         <v>90</v>
       </c>
       <c r="D457" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E457" s="18"/>
       <c r="F457" s="19"/>
@@ -16725,7 +16762,7 @@
         <v>3</v>
       </c>
       <c r="D459" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E459" s="18"/>
       <c r="F459" s="19"/>
@@ -16755,7 +16792,7 @@
         <v>177</v>
       </c>
       <c r="D461" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E461" s="18"/>
       <c r="F461" s="19"/>
@@ -16830,19 +16867,19 @@
     </row>
     <row r="466" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B466" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C466" s="26">
         <v>1</v>
       </c>
       <c r="D466" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E466" s="210" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F466" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I466" s="138" t="s">
         <v>93</v>
@@ -16853,19 +16890,19 @@
     </row>
     <row r="467" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B467" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C467" s="26">
         <v>2</v>
       </c>
       <c r="D467" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E467" s="210" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F467" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I467" s="138" t="s">
         <v>93</v>
@@ -16876,19 +16913,19 @@
     </row>
     <row r="468" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B468" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C468" s="26">
         <v>3</v>
       </c>
       <c r="D468" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E468" s="210" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F468" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I468" s="138" t="s">
         <v>93</v>
@@ -16899,19 +16936,19 @@
     </row>
     <row r="469" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B469" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C469" s="26">
         <v>4</v>
       </c>
       <c r="D469" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E469" s="210" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F469" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I469" s="138" t="s">
         <v>93</v>
@@ -16951,7 +16988,7 @@
         <v>19</v>
       </c>
       <c r="D472" s="166" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E472" s="167" t="s">
         <v>51</v>
@@ -16983,7 +17020,7 @@
         <v>39</v>
       </c>
       <c r="C474" s="131" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D474" s="15" t="str">
         <f>IF(OR(C477="",C478=""),"",VLOOKUP(CONCATENATE(C477," - ",C478),Exposure,2))</f>
@@ -17007,7 +17044,7 @@
         <v>84</v>
       </c>
       <c r="C475" s="210" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D475" s="15" t="s">
         <v>126</v>
@@ -17030,7 +17067,7 @@
         <v>85</v>
       </c>
       <c r="C476" s="212" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D476" s="18"/>
       <c r="E476" s="16" t="s">
@@ -17051,7 +17088,7 @@
         <v>44</v>
       </c>
       <c r="C477" s="133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D477" s="49" t="str">
         <f>IF(C477="","WARNING - Please enter a Probability.","")</f>
@@ -17075,7 +17112,7 @@
         <v>50</v>
       </c>
       <c r="C478" s="133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D478" s="15" t="s">
         <v>96</v>
@@ -17084,7 +17121,7 @@
         <v>61</v>
       </c>
       <c r="F478" s="135" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I478" s="138" t="s">
         <v>93</v>
@@ -17107,7 +17144,7 @@
         <v>62</v>
       </c>
       <c r="F479" s="217" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I479" s="138" t="s">
         <v>93</v>
@@ -17135,7 +17172,7 @@
         <v>89</v>
       </c>
       <c r="D481" s="174" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E481" s="18"/>
       <c r="F481" s="19"/>
@@ -17165,7 +17202,7 @@
         <v>90</v>
       </c>
       <c r="D483" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E483" s="18"/>
       <c r="F483" s="19"/>
@@ -17195,7 +17232,7 @@
         <v>3</v>
       </c>
       <c r="D485" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E485" s="18"/>
       <c r="F485" s="19"/>
@@ -17225,7 +17262,7 @@
         <v>177</v>
       </c>
       <c r="D487" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E487" s="18"/>
       <c r="F487" s="19"/>
@@ -17300,19 +17337,19 @@
     </row>
     <row r="492" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B492" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C492" s="26">
         <v>1</v>
       </c>
       <c r="D492" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E492" s="210" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F492" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I492" s="138" t="s">
         <v>93</v>
@@ -17323,19 +17360,19 @@
     </row>
     <row r="493" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B493" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C493" s="26">
         <v>2</v>
       </c>
       <c r="D493" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E493" s="210" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F493" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I493" s="138" t="s">
         <v>93</v>
@@ -17346,19 +17383,19 @@
     </row>
     <row r="494" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B494" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C494" s="26">
         <v>3</v>
       </c>
       <c r="D494" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E494" s="210" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F494" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I494" s="138" t="s">
         <v>93</v>
@@ -17369,19 +17406,19 @@
     </row>
     <row r="495" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B495" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C495" s="26">
         <v>4</v>
       </c>
       <c r="D495" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E495" s="210" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F495" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I495" s="138" t="s">
         <v>93</v>
@@ -17421,7 +17458,7 @@
         <v>20</v>
       </c>
       <c r="D498" s="166" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E498" s="167" t="s">
         <v>51</v>
@@ -17453,7 +17490,7 @@
         <v>39</v>
       </c>
       <c r="C500" s="131" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D500" s="15" t="str">
         <f>IF(OR(C503="",C504=""),"",VLOOKUP(CONCATENATE(C503," - ",C504),Exposure,2))</f>
@@ -17477,7 +17514,7 @@
         <v>84</v>
       </c>
       <c r="C501" s="210" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D501" s="15" t="s">
         <v>126</v>
@@ -17500,7 +17537,7 @@
         <v>85</v>
       </c>
       <c r="C502" s="212" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D502" s="18"/>
       <c r="E502" s="16" t="s">
@@ -17521,7 +17558,7 @@
         <v>44</v>
       </c>
       <c r="C503" s="133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D503" s="49" t="str">
         <f>IF(C503="","WARNING - Please enter a Probability.","")</f>
@@ -17545,7 +17582,7 @@
         <v>50</v>
       </c>
       <c r="C504" s="133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D504" s="15" t="s">
         <v>96</v>
@@ -17554,7 +17591,7 @@
         <v>61</v>
       </c>
       <c r="F504" s="135" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I504" s="138" t="s">
         <v>93</v>
@@ -17577,7 +17614,7 @@
         <v>62</v>
       </c>
       <c r="F505" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I505" s="138" t="s">
         <v>93</v>
@@ -17605,7 +17642,7 @@
         <v>89</v>
       </c>
       <c r="D507" s="174" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E507" s="18"/>
       <c r="F507" s="19"/>
@@ -17635,7 +17672,7 @@
         <v>90</v>
       </c>
       <c r="D509" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E509" s="18"/>
       <c r="F509" s="19"/>
@@ -17665,7 +17702,7 @@
         <v>3</v>
       </c>
       <c r="D511" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E511" s="18"/>
       <c r="F511" s="19"/>
@@ -17695,7 +17732,7 @@
         <v>177</v>
       </c>
       <c r="D513" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E513" s="18"/>
       <c r="F513" s="19"/>
@@ -17776,13 +17813,13 @@
         <v>1</v>
       </c>
       <c r="D518" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E518" s="135" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F518" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I518" s="138" t="s">
         <v>93</v>
@@ -17799,13 +17836,13 @@
         <v>2</v>
       </c>
       <c r="D519" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E519" s="135" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F519" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I519" s="138" t="s">
         <v>93</v>
@@ -17822,13 +17859,13 @@
         <v>3</v>
       </c>
       <c r="D520" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E520" s="135" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F520" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I520" s="138" t="s">
         <v>93</v>
@@ -17845,13 +17882,13 @@
         <v>4</v>
       </c>
       <c r="D521" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E521" s="210" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F521" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I521" s="138" t="s">
         <v>93</v>
